--- a/data/trans_bre/P16A12-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A12-Clase-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para la diabetes en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P16A12-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A12-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-3.557932063011417</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-4.582612646288835</v>
+        <v>-4.582612646288836</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.6691410247285896</v>
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.122519501377923</v>
+        <v>-5.436941182018317</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.412740022703101</v>
+        <v>-3.475892774711143</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.411177795445327</v>
+        <v>-6.981515050179713</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.910800599786452</v>
+        <v>-6.840244061682597</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.9063864518729576</v>
+        <v>-0.9167172737231535</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6001972416135158</v>
+        <v>-0.6151289917459756</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.766615189463641</v>
+        <v>-0.7730266694466336</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.7450011230495052</v>
+        <v>-0.7365065736791891</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.9354266200579912</v>
+        <v>-0.8084706232052865</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.017586269813513</v>
+        <v>2.493825426609508</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.2876801827590479</v>
+        <v>-0.3210545280305812</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-2.394027733332055</v>
+        <v>-2.204395015295318</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.1701229208481921</v>
+        <v>-0.1976376451087218</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.17185405752389</v>
+        <v>0.9747270081731917</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.03318425086884164</v>
+        <v>0.006313281174057367</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.3715541738740203</v>
+        <v>-0.3473367236499957</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-3.462439783701067</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-6.362054777753381</v>
+        <v>-6.362054777753379</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.6713801009920017</v>
@@ -749,7 +749,7 @@
         <v>-0.5640834092951159</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.7152587011645036</v>
+        <v>-0.7152587011645035</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-5.32041442000482</v>
+        <v>-5.375860335292122</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-5.426963413828735</v>
+        <v>-5.133327735668783</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-6.491509583605258</v>
+        <v>-6.449250363867508</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-9.118643556491939</v>
+        <v>-9.386993979145089</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.8982968331216772</v>
+        <v>-0.927302179852336</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8011410817917208</v>
+        <v>-0.8090399784271003</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.828655162691144</v>
+        <v>-0.8227566293909409</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.8344381844406724</v>
+        <v>-0.8254763865152486</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.5336594499415949</v>
+        <v>-0.7935466255111358</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6722131574174194</v>
+        <v>0.6111438813933394</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-0.3763925020296691</v>
+        <v>-0.235124571035449</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-3.937080502044869</v>
+        <v>-4.116184669270047</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.05938567514610615</v>
+        <v>-0.2039898891119158</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.288155216674544</v>
+        <v>0.2175854438874292</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05754294381537443</v>
+        <v>0.01859505621527411</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.5244184350871413</v>
+        <v>-0.5402403040518275</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-3.541586812925911</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.5004366134188518</v>
+        <v>-0.5004366134188531</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4333574796351159</v>
@@ -849,7 +849,7 @@
         <v>-0.3534214573909795</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.04857911467290888</v>
+        <v>-0.04857911467290901</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.829781540623074</v>
+        <v>-1.367693003919751</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.929320378597057</v>
+        <v>-8.113557022648127</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.562963986637111</v>
+        <v>-7.573897388645944</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.717439558310782</v>
+        <v>-4.476854833624469</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2920094373943499</v>
+        <v>-0.2536246946704064</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.666860171423588</v>
+        <v>-0.6954991476028122</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.6881095767556564</v>
+        <v>-0.6823502955855896</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3968797830999187</v>
+        <v>-0.365577945592586</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.643545314998608</v>
+        <v>6.720392542049858</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5089034161808933</v>
+        <v>-0.3447143504713184</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.314039475703341</v>
+        <v>2.150504585810447</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.617235320432924</v>
+        <v>3.885574736051901</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.803511688478117</v>
+        <v>1.52399990333159</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08649390293793806</v>
+        <v>-0.01398271611963904</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3028578657048073</v>
+        <v>0.2561726031091996</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3908491179694602</v>
+        <v>0.4557995144531702</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.233780300860579</v>
+        <v>-5.404598219273671</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-6.256925282872269</v>
+        <v>-5.953631909944375</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-7.724874728755729</v>
+        <v>-7.647194809920187</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-7.574622702936419</v>
+        <v>-7.422357207242761</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6172512822546168</v>
+        <v>-0.6332165374235423</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6109415855236068</v>
+        <v>-0.5877094617751716</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.7327778737648267</v>
+        <v>-0.7377214571836589</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6258780657358968</v>
+        <v>-0.6211864740129569</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-1.170493772277505</v>
+        <v>-1.173727335324962</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-1.454512846912442</v>
+        <v>-1.367495140565373</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-3.48571877882591</v>
+        <v>-3.331119872522925</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-3.245975365010604</v>
+        <v>-3.374186599800732</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1553122879852954</v>
+        <v>-0.1683509126377976</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1791877273124045</v>
+        <v>-0.1684814439895733</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.3814310078005402</v>
+        <v>-0.3977123324107014</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.3471690120062791</v>
+        <v>-0.3594177475788125</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-1.507738910331563</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2.842256393163622</v>
+        <v>2.842256393163625</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.1851492793355681</v>
@@ -1049,7 +1049,7 @@
         <v>-0.1406929166944131</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.348063896741008</v>
+        <v>0.3480638967410085</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.338205282970079</v>
+        <v>-4.884573883500523</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.298095495957901</v>
+        <v>-0.7903424996796247</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.021121373676048</v>
+        <v>-4.65815692390388</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.418844914497268</v>
+        <v>0.1718402028891927</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5205614684070256</v>
+        <v>-0.5461327689641917</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1504664204768112</v>
+        <v>-0.09558603261898393</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3935837131544271</v>
+        <v>-0.3774914581713253</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.03483236674205018</v>
+        <v>0.01816035795591666</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.977089043091908</v>
+        <v>1.747621301790391</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.712713601632753</v>
+        <v>5.155546336720772</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.509792932974786</v>
+        <v>1.598460242173213</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.208756033733811</v>
+        <v>5.148140084580679</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4845672794317661</v>
+        <v>0.3998080875482546</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9054332075198974</v>
+        <v>1.041590014420176</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1728519043760794</v>
+        <v>0.1767431537016693</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.778780617526093</v>
+        <v>0.7707814909513293</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>11.9931581923549</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10.00314305155129</v>
+        <v>10.00314305155128</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>31.03207192854024</v>
@@ -1160,26 +1160,26 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>7.989495480549001</v>
+        <v>7.787081306908473</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>8.566796651882115</v>
+        <v>8.468035948137619</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9.391018303001267</v>
+        <v>9.299347061990842</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7.910559725117902</v>
+        <v>7.764268853400207</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>1.679082571174204</v>
+        <v>1.596610218346068</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>2.708472391844039</v>
+        <v>2.61293270018833</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>2.680174160855508</v>
+        <v>3.010412641751307</v>
       </c>
     </row>
     <row r="21">
@@ -1190,26 +1190,26 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>11.42903358441242</v>
+        <v>11.29272228551968</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>14.2334124000651</v>
+        <v>14.22025754530276</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>14.55084453908043</v>
+        <v>14.72066461651984</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11.79622045396028</v>
+        <v>11.75326966474077</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>17.91533893509896</v>
+        <v>17.95965752773049</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>34.65973219464193</v>
+        <v>35.3597960901963</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>49.42245521040493</v>
+        <v>47.76685084128131</v>
       </c>
     </row>
     <row r="22">
@@ -1256,28 +1256,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.5972903821854594</v>
+        <v>-0.6206792499748698</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.1997696274151612</v>
+        <v>-0.1612400318501728</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.912413429659843</v>
+        <v>-1.713430188041033</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.617542780930001</v>
+        <v>-2.399791500996375</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.1014707658214683</v>
+        <v>-0.09953332851800821</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.02580245654842507</v>
+        <v>-0.02334712432731591</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.2130710320103892</v>
+        <v>-0.1913125171338313</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.2686646783963001</v>
+        <v>-0.2551945640727993</v>
       </c>
     </row>
     <row r="24">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.597040839012533</v>
+        <v>1.608426117882866</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.434441723611473</v>
+        <v>2.566919928780023</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7765854445216536</v>
+        <v>1.013764812848199</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.3533881837644179</v>
+        <v>-0.2876965535566589</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3213601212927846</v>
+        <v>0.3126823665201967</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3709594473586825</v>
+        <v>0.3793654683358635</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09591493339506163</v>
+        <v>0.1308498070451238</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.0426821322436047</v>
+        <v>-0.03685922142226711</v>
       </c>
     </row>
     <row r="25">
